--- a/litreview-exceltab/litreview-two-sector-model.xlsx
+++ b/litreview-exceltab/litreview-two-sector-model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Desktop\readingSummary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81804\Desktop\readingSummary\litreview-exceltab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78597EC1-3E3A-4E29-9522-8948EECD0AA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3046FDFA-E6BA-40E0-A7D6-60E9E6078D5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F1D6E5AD-9F50-4A84-BC7F-605C0FCCE104}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Theoretical models on two-sector minimum wage</t>
     <phoneticPr fontId="1"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MW creates unemployment through the labor supply side, price adjustment in the product market.  MW pulls labor to the urban labor market. Production in the agricultural sector drops. Price of agricultural goods rices relative to manufactured goods. Supply of manufactured goods drops. Labor demand in the manufacturing industry drops. Unemployment (labor force employed neither in the manufacturing or agricultural industries) rises.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>General equilibrium modeling product market, Urban + Rural + Unemployment</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -104,6 +100,66 @@
   </si>
   <si>
     <t>Basically a Gramlich-Mincer model with a markdown to lower the probability of getting a job in the covered sector</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MW creates unemployment through the labor supply side, price adjustment in the product market.  MW pulls labor to the urban labor market. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Production in the agricultural sector drops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Price of agricultural goods rices relative to manufactured goods. Supply of manufactured goods drops. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Labor demand in the manufacturing industry drops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Unemployment (labor force employed neither in the manufacturing or agricultural industries) rises.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fields (1975) Rural-Urban migration, urban unemployment and underemployment, and job search activity in LDCs. JED</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Those who cannot obtain a formal sector job and cannot afford to search work in the informal sector. Informal sector jobs are secondary jobs. Workers are better off with a primary job in the covered setor. Wage in the informal sector is less than their potential wage in the formal sector (?)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -111,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +180,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -179,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D45A43-9181-44D4-8D11-907702B24996}" name="テーブル1" displayName="テーブル1" ref="A2:E7" totalsRowShown="0">
-  <autoFilter ref="A2:E7" xr:uid="{80C61756-757D-467F-BE1C-F207D30FE96F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D45A43-9181-44D4-8D11-907702B24996}" name="テーブル1" displayName="テーブル1" ref="A2:E8" totalsRowShown="0">
+  <autoFilter ref="A2:E8" xr:uid="{80C61756-757D-467F-BE1C-F207D30FE96F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDF1837E-38A0-4BBF-8968-609E31162B1D}" name="Paper" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{3E6B04F2-DF99-4E90-807F-B95339496310}" name="Setting/Context"/>
@@ -489,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A387CB-A315-450F-804B-1864C5563B0A}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -501,7 +566,7 @@
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="51.5234375" customWidth="1"/>
     <col min="4" max="4" width="29.80859375" customWidth="1"/>
-    <col min="5" max="5" width="23.1875" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.85">
@@ -531,16 +596,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="70.8" x14ac:dyDescent="0.85">
@@ -553,13 +618,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="53.1" x14ac:dyDescent="0.85">
@@ -572,13 +637,21 @@
     </row>
     <row r="7" spans="1:5" ht="159.30000000000001" x14ac:dyDescent="0.85">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
+    </row>
+    <row r="8" spans="1:5" ht="212.4" x14ac:dyDescent="0.85">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
